--- a/image/questionnaireresponse.xlsx
+++ b/image/questionnaireresponse.xlsx
@@ -967,44 +967,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="45.16015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="58.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="49.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.9375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="109.2265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="108.703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/questionnaireresponse.xlsx
+++ b/image/questionnaireresponse.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="258">
   <si>
     <t>Path</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -651,10 +651,6 @@
   </si>
   <si>
     <t>QuestionnaireResponse.item.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -967,44 +963,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.9140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="45.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.99609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="49.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="108.703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="109.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3322,13 +3318,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3379,7 +3375,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3397,7 +3393,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3405,7 +3401,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3434,7 +3430,7 @@
         <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>98</v>
@@ -3487,7 +3483,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3505,7 +3501,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3513,11 +3509,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3539,10 +3535,10 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>98</v>
@@ -3597,7 +3593,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3623,7 +3619,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3646,17 +3642,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3705,7 +3701,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -3723,7 +3719,7 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3731,7 +3727,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3757,16 +3753,16 @@
         <v>63</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -3815,7 +3811,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3833,7 +3829,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -3841,7 +3837,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3864,17 +3860,17 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -3923,7 +3919,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3941,7 +3937,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -3949,7 +3945,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3975,13 +3971,13 @@
         <v>196</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4031,7 +4027,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4043,13 +4039,13 @@
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4057,7 +4053,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4080,13 +4076,13 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4137,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4155,7 +4151,7 @@
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4163,7 +4159,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4192,7 +4188,7 @@
         <v>96</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>98</v>
@@ -4245,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4263,7 +4259,7 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4271,11 +4267,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4297,10 +4293,10 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>98</v>
@@ -4355,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4381,7 +4377,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4404,19 +4400,19 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4441,14 +4437,14 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4483,7 +4479,7 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4491,7 +4487,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4517,14 +4513,14 @@
         <v>42</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4573,7 +4569,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4599,7 +4595,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4625,14 +4621,14 @@
         <v>42</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -4681,7 +4677,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
